--- a/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
+++ b/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranaymishra/Desktop/GPT 4 email marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEC7C9-CB82-0646-B5DF-380A0AC8B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2A7E7-CA8E-7444-A3BF-710CD632D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="520" windowWidth="22660" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>S.No</t>
   </si>
@@ -100,6 +100,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">The sheer number of clients you have is a testimony to your committed efforts.
 However, I do have some feedback for you. Logicworks still has a long way to go when it comes to harnessing its full potential. You deserve more visibility, more eyeballs, and an even larger client base. More people should know about the kind of groundbreaking work you do. Do you agree?
@@ -112,6 +113,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>No more trials, errors, and guesswork.
 Just buckle up and get ready to skyrocket with Primavision.</t>
@@ -121,6 +123,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Just imagine having a seasoned Chief Marketing Officer on your team, working with your team, and driving your marketing strategy to new heights, but without the hefty price tag of a full-time executive.
@@ -134,6 +137,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">As a marketing enthusiast, I did notice the incredible potential your company holds. 
 But here's a million-dollar question for you.
@@ -148,6 +152,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">We Will Do All The Grunt Work For You. </t>
     </r>
@@ -156,6 +161,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 From crafting captivating campaigns to generating qualified leads, we'll be your extended marketing arm, working tirelessly behind the scenes while you reap the rewards in the front end.
@@ -167,6 +173,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Primavision's Tech-Stacking Capabilities Are Second To None.</t>
     </r>
@@ -175,6 +182,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 We'll empower your business with state-of-the-art automation tools, ensuring every step of your marketing process is optimized for maximum impact. 
@@ -186,6 +194,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">No more trials, errors, and guesswork.
 Let’s revolutionize your success strategy today!
@@ -196,6 +205,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 If you want what it takes to beat the competition, let’s get on a quick no-obligation call. Book a slot that works best for you from my Calendly link in the signature.
@@ -209,6 +219,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">That is precisely why I'm sure that you would give me a big virtual high-five when I tell you that Primavision can help you put your marketing on auto-pilot and growth hack your way up the revenue ladder.
 So, what do you say? Would you be interested in the new era of marketing automation?
@@ -220,6 +231,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>No more trials, errors, and guesswork.
 Just buckle up and get ready to skyrocket with Primavision.</t>
@@ -229,6 +241,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Just imagine having a seasoned Chief Marketing Officer on your team, driving your marketing strategy to new heights, but without the hefty price tag of a full-time executive.
@@ -252,6 +265,9 @@
   </si>
   <si>
     <t>akash.101@kvsroranchi.in</t>
+  </si>
+  <si>
+    <t>contactrajkumar.s@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -270,12 +286,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,12 +301,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,18 +319,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -574,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -715,7 +738,9 @@
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
@@ -785,6 +810,7 @@
     <hyperlink ref="G3" r:id="rId7" xr:uid="{06018ECA-858A-5B4A-8DEE-BD759FA9899D}"/>
     <hyperlink ref="G4" r:id="rId8" xr:uid="{2DF5413A-8520-FF43-B0EC-E8B34E0717BC}"/>
     <hyperlink ref="G5" r:id="rId9" xr:uid="{1C89B689-96C9-8A45-A9C1-31CCD040837A}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{6B87C99C-FCB7-6F44-9020-93EB0A8ACBA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
+++ b/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranaymishra/Desktop/GPT 4 email marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2A7E7-CA8E-7444-A3BF-710CD632D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B8DAF-B777-8B48-8127-A782596AE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="520" windowWidth="22660" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>S.No</t>
   </si>
@@ -72,18 +72,6 @@
   </si>
   <si>
     <t>https://www.onepath.com.au/</t>
-  </si>
-  <si>
-    <t>Identity Digital</t>
-  </si>
-  <si>
-    <t>Akram</t>
-  </si>
-  <si>
-    <t>Atallah</t>
-  </si>
-  <si>
-    <t>https://www.identity.digital/</t>
   </si>
   <si>
     <t>V1</t>
@@ -264,10 +252,7 @@
     <t>mowall5048@gmail.com</t>
   </si>
   <si>
-    <t>akash.101@kvsroranchi.in</t>
-  </si>
-  <si>
-    <t>contactrajkumar.s@gmail.com</t>
+    <t>tixide8959@miqlab.com</t>
   </si>
 </sst>
 </file>
@@ -595,9 +580,9 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -624,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -657,7 +642,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -683,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
@@ -710,40 +695,22 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="D6" s="2"/>
@@ -804,13 +771,10 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{73C35C52-B547-0547-B7EC-3FFCC87EA118}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{A10439B9-F760-9942-BE45-479EF09DD497}"/>
-    <hyperlink ref="G3" r:id="rId7" xr:uid="{06018ECA-858A-5B4A-8DEE-BD759FA9899D}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{2DF5413A-8520-FF43-B0EC-E8B34E0717BC}"/>
-    <hyperlink ref="G5" r:id="rId9" xr:uid="{1C89B689-96C9-8A45-A9C1-31CCD040837A}"/>
-    <hyperlink ref="H5" r:id="rId10" xr:uid="{6B87C99C-FCB7-6F44-9020-93EB0A8ACBA9}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{73C35C52-B547-0547-B7EC-3FFCC87EA118}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{A10439B9-F760-9942-BE45-479EF09DD497}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{06018ECA-858A-5B4A-8DEE-BD759FA9899D}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{2DF5413A-8520-FF43-B0EC-E8B34E0717BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,24 +801,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="176.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
+++ b/PV_Lead Management Sheet_PYTHON_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranaymishra/Desktop/GPT 4 email marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B8DAF-B777-8B48-8127-A782596AE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FFBB43-B6E7-A948-B1C1-6DDA086E3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="520" windowWidth="22660" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>S.No</t>
   </si>
@@ -243,16 +243,16 @@
     <t>Lead_2</t>
   </si>
   <si>
-    <t>bsoni9122505056@gmail.com</t>
-  </si>
-  <si>
-    <t>akash.v@signimus.com</t>
-  </si>
-  <si>
-    <t>mowall5048@gmail.com</t>
-  </si>
-  <si>
     <t>tixide8959@miqlab.com</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>akash"s home</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/</t>
   </si>
 </sst>
 </file>
@@ -580,9 +580,9 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -668,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
@@ -695,22 +695,36 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="D6" s="2"/>
@@ -775,6 +789,8 @@
     <hyperlink ref="H3" r:id="rId5" xr:uid="{A10439B9-F760-9942-BE45-479EF09DD497}"/>
     <hyperlink ref="G3" r:id="rId6" xr:uid="{06018ECA-858A-5B4A-8DEE-BD759FA9899D}"/>
     <hyperlink ref="G4" r:id="rId7" xr:uid="{2DF5413A-8520-FF43-B0EC-E8B34E0717BC}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{84FFA47D-3008-5F4A-8E26-22F0FF0A67FF}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{3CC81754-A299-1545-897F-24F86AD94573}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
